--- a/mbs-perturbation/greedy/svm/greedy-svm-linear-results.xlsx
+++ b/mbs-perturbation/greedy/svm/greedy-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.103448275862069</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1875</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9942279942279941</v>
+        <v>0.9494949494949495</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.9653679653679654</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4028985507246377</v>
+        <v>0.6927536231884058</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9956709956709956</v>
+        <v>0.9913419913419914</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.987012987012987</v>
+        <v>0.9956709956709957</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02068965517241379</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="C7" t="n">
         <v>0.2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0375</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7204065499717672</v>
+        <v>0.9189259050128615</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/greedy/svm/greedy-svm-linear-results.xlsx
+++ b/mbs-perturbation/greedy/svm/greedy-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08571428571428572</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1578947368421053</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9494949494949495</v>
+        <v>0.6961538461538462</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9653679653679654</v>
+        <v>0.5490384615384616</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6927536231884058</v>
+        <v>0.1778846153846154</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9913419913419914</v>
+        <v>0.3425480769230769</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.3629807692307692</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01714285714285714</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03157894736842105</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9189259050128615</v>
+        <v>0.4257211538461539</v>
       </c>
     </row>
   </sheetData>
